--- a/data/income_statement/2digits/size/02_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/02_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>02-Forestry and logging</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>02-Forestry and logging</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,290 +841,330 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>132952.49782</v>
+        <v>137814.4448</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>134692.19691</v>
+        <v>139465.54692</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>172256.21269</v>
+        <v>172923.3426</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>177384.64412</v>
+        <v>188242.6057</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>187132.39009</v>
+        <v>179453.61495</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>176689.0917</v>
+        <v>177349.12483</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>201603.58546</v>
+        <v>212375.45236</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>245400.01419</v>
+        <v>262900.49638</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>285776.4597</v>
+        <v>297808.24921</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>391221.31274</v>
+        <v>401395.17648</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>504077.83912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>540681.1779700001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>570554.924</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>117777.88023</v>
+        <v>120555.95742</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>123604.50721</v>
+        <v>124020.92142</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>158653.17773</v>
+        <v>159596.07056</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>166064.31043</v>
+        <v>177369.16561</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>163953.84382</v>
+        <v>156439.51502</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>159972.54837</v>
+        <v>160389.14769</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>179680.96793</v>
+        <v>189602.02775</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>222929.68497</v>
+        <v>240093.4453</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>270198.0737</v>
+        <v>282283.80562</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>333047.27069</v>
+        <v>345721.94453</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>411314.99445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>447951.86905</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>496815.199</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>13251.06797</v>
+        <v>15710.60004</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>7464.68596</v>
+        <v>12228.08367</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>8851.19931</v>
+        <v>8636.341319999998</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4381.81068</v>
+        <v>4126.14893</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>12061.67346</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>9523.44587</v>
+        <v>9791.8325</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>13632.69853</v>
+        <v>13862.40815</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>9648.756960000001</v>
+        <v>9807.685389999999</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>3062.08971</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>41389.56903</v>
+        <v>41295.69587</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>64599.80692</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>64489.35662000001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>52505.435</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1923.54962</v>
+        <v>1547.88734</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>3623.00374</v>
+        <v>3216.54183</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>4751.83565</v>
+        <v>4690.93072</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>6938.52301</v>
+        <v>6747.29116</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>11116.87281</v>
+        <v>10952.42647</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>7193.09746</v>
+        <v>7168.14464</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>8289.919</v>
+        <v>8911.016460000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>12821.57226</v>
+        <v>12999.36569</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>12516.29629</v>
+        <v>12462.35388</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>16784.47302</v>
+        <v>14377.53608</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>28163.03775</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>28239.9523</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>21234.29</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>789.5304</v>
+        <v>567.4306899999999</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>400.66291</v>
+        <v>331.18019</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>243.32954</v>
+        <v>211.17523</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>684.34015</v>
+        <v>685.3015499999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>705.1271999999999</v>
+        <v>696.0521</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>384.84726</v>
+        <v>1437.20809</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>202.12181</v>
+        <v>489.7955</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>265.59059</v>
+        <v>1362.62588</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>419.55602</v>
+        <v>1081.8371</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>1728.59337</v>
+        <v>1707.51163</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1096.71627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1097.97352</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>2133.996</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>698.9533399999999</v>
+        <v>476.57338</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>265.98317</v>
+        <v>192.89817</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>200.63261</v>
+        <v>170.19705</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>605.08523</v>
+        <v>628.59006</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>622.2771799999999</v>
+        <v>610.70088</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>286.15886</v>
+        <v>1318.52277</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>156.65039</v>
+        <v>434.89414</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>223.60852</v>
+        <v>1312.28401</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>391.33805</v>
+        <v>1045.62648</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1390.01129</v>
+        <v>1373.82485</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>989.3271099999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>990.5843599999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>2003.25</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>77.99287</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>126.43284</v>
+        <v>130.03512</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>25.1102</v>
+        <v>23.39145</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>49.87743999999999</v>
+        <v>27.33401</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>24.42559</v>
+        <v>27.02879</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>10.74499</v>
+        <v>10.47337</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1.48754</v>
+        <v>1.48692</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>10.98126</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>7.21797</v>
+        <v>7.45577</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>151.61122</v>
+        <v>147.5551</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>17.70743</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>36.428</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>12.58419</v>
+        <v>12.86444</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>8.2469</v>
@@ -1235,226 +1176,256 @@
         <v>29.37748</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>58.42443</v>
+        <v>58.32243</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>87.94341</v>
+        <v>108.21195</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>43.98388000000001</v>
+        <v>53.41444</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>31.00081</v>
+        <v>39.36061</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>21</v>
+        <v>28.75485</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>186.97086</v>
+        <v>186.13168</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>89.68173</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>94.318</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>132162.96742</v>
+        <v>137247.01411</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>134291.534</v>
+        <v>139134.36673</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>172012.88315</v>
+        <v>172712.16737</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>176700.30397</v>
+        <v>187557.30415</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>186427.26289</v>
+        <v>178757.56285</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>176304.24444</v>
+        <v>175911.91674</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>201401.46365</v>
+        <v>211885.65686</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>245134.4236</v>
+        <v>261537.8705</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>285356.9036799999</v>
+        <v>296726.41211</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>389492.71937</v>
+        <v>399687.66485</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>502981.12285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>539583.2044500001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>568420.928</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>102944.03481</v>
+        <v>109238.65488</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>106050.74735</v>
+        <v>108422.5028</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>144210.56975</v>
+        <v>145312.61849</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>140367.58426</v>
+        <v>149585.69734</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>145566.03678</v>
+        <v>141456.18874</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>143905.82978</v>
+        <v>140984.1565</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>160161.53586</v>
+        <v>164710.20801</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>200730.23097</v>
+        <v>211567.85885</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>226025.08085</v>
+        <v>234502.20156</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>295172.62264</v>
+        <v>304670.47753</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>386172.23669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>419149.5341400001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>442379.708</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>40914.13246</v>
+        <v>47164.50829999999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>39240.39375</v>
+        <v>41637.26853</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>34461.03995000001</v>
+        <v>38014.80308999999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>29950.52053</v>
+        <v>38287.10083</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>31300.28158</v>
+        <v>31313.12095</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>25569.34301</v>
+        <v>23965.33971</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>33201.37562999999</v>
+        <v>36505.21317</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>29559.76054</v>
+        <v>37639.55222</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>40043.43909000001</v>
+        <v>44121.18144000001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>56806.62162000001</v>
+        <v>54993.90631999999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>51513.80006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>73840.86990000001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>84657.80499999999</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>48938.10335</v>
+        <v>48460.96559000001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>49954.50379</v>
+        <v>46695.21858</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>83035.71587999999</v>
+        <v>79679.3106</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>75159.10142000001</v>
+        <v>74660.29469</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>71832.45688</v>
+        <v>69081.01537000001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>81947.23329999999</v>
+        <v>80907.75337999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>81261.39677000001</v>
+        <v>80063.01793</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>119199.33585</v>
+        <v>121920.28096</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>103570.59527</v>
+        <v>108961.87448</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>149283.98552</v>
+        <v>165187.31882</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>250933.40759</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>259594.3492</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>255240.759</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>13091.799</v>
+        <v>13613.18099</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>16855.84981</v>
+        <v>20090.01569</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>26551.38633</v>
+        <v>27471.57721</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>35024.95731000001</v>
+        <v>36405.29682</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>37984.22272999999</v>
+        <v>36618.67683</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>35920.80128</v>
+        <v>35673.18003</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>45041.94478</v>
+        <v>47787.47251000001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>51623.80891</v>
+        <v>51674.42908</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>81715.77325</v>
+        <v>80722.69726</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>88645.23604999999</v>
+        <v>84139.21601999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>81232.02249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>83232.21764</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>101175.561</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1463,142 +1434,157 @@
         <v>0</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>162.42759</v>
+        <v>146.92759</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>233.005</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>4449.075589999999</v>
+        <v>4443.37559</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>468.45219</v>
+        <v>437.88338</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>656.81868</v>
+        <v>354.5044</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>347.3256700000001</v>
+        <v>333.59659</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>695.27324</v>
+        <v>696.44838</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>436.77945</v>
+        <v>350.03637</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>2493.00655</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2482.0974</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1305.583</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>29218.93261</v>
+        <v>28008.35923</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>28240.78665</v>
+        <v>30711.86393</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>27802.3134</v>
+        <v>27399.54888</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>36332.71971</v>
+        <v>37971.60681</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>40861.22611</v>
+        <v>37301.37411</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>32398.41466</v>
+        <v>34927.76024</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>41239.92779</v>
+        <v>47175.44884999999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>44404.19263</v>
+        <v>49970.01165</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>59331.82283</v>
+        <v>62224.21055</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>94320.09672999999</v>
+        <v>95017.18732</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>116808.88616</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>120433.67031</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>126041.22</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>21378.51851</v>
+        <v>21545.80432</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>21459.38249</v>
+        <v>22587.25879</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>20790.4781</v>
+        <v>18933.89221</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>27031.92014</v>
+        <v>26096.59149</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>32001.69175</v>
+        <v>29294.91545</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>27760.09043</v>
+        <v>26417.34553</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>32842.8526</v>
+        <v>32623.69574</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>37708.05406</v>
+        <v>39011.08033</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>48688.46416</v>
+        <v>48147.09908</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>71409.69731</v>
+        <v>72093.82753</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>92122.17109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>92322.36803</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>100088.663</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>94.50132000000001</v>
+        <v>0</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>267.08523</v>
+        <v>0</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>451.74847</v>
+        <v>148.46873</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>385.25703</v>
+        <v>152.48417</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>274.60784</v>
+        <v>38.702</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>940.63298</v>
+        <v>755.84174</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>8.72298</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>187.0063</v>
+        <v>8.0025</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>514.53739</v>
+        <v>30.7965</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>0</v>
@@ -1606,179 +1592,204 @@
       <c r="M21" s="48" t="n">
         <v>3082.11052</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>31.157</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>3093.50994</v>
+        <v>3063.691269999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>2286.32007</v>
+        <v>2587.6775</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2533.41653</v>
+        <v>2950.141839999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>3116.23627</v>
+        <v>3635.79334</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>4187.8619</v>
+        <v>3942.42785</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2380.52261</v>
+        <v>2468.2458</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3249.61638</v>
+        <v>3420.22465</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3153.38093</v>
+        <v>4058.36327</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>4206.261399999999</v>
+        <v>4928.3409</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>13030.47069</v>
+        <v>12116.33382</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>19772.2906</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>18311.54667</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>14320.691</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>18190.50725</v>
+        <v>18482.11305</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>18905.97719</v>
+        <v>19999.58129</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>17805.3131</v>
+        <v>15835.28164</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>23530.42684</v>
+        <v>22308.31398</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>27539.22201</v>
+        <v>25313.7856</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>24438.93484</v>
+        <v>23193.25799</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>29584.51324</v>
+        <v>29194.74811</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>34367.66682999999</v>
+        <v>34944.71456</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>43967.66537</v>
+        <v>43187.96168</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>58379.22661999999</v>
+        <v>59977.49371</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>69267.76996999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>70928.71084</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>85736.815</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>7840.4141</v>
+        <v>6462.554909999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>6781.40416</v>
+        <v>8124.605140000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>7011.8353</v>
+        <v>8465.65667</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>9300.799570000001</v>
+        <v>11875.01532</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>8859.53436</v>
+        <v>8006.45866</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>4638.32423</v>
+        <v>8510.414710000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>8397.075190000001</v>
+        <v>14551.75311</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>6696.13857</v>
+        <v>10958.93132</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>10643.35867</v>
+        <v>14077.11147</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>22910.39942</v>
+        <v>22923.35979</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>24686.71507</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>28111.30228</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>25952.557</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>661.04656</v>
+        <v>651.0441099999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>788.5912499999999</v>
+        <v>903.1505699999999</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>929.58422</v>
+        <v>924.472</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>746.40057</v>
+        <v>809.01805</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1238.38799</v>
+        <v>1180.43289</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>789.17037</v>
+        <v>1488.45958</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1576.91367</v>
+        <v>2745.54197</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1361.07984</v>
+        <v>3114.73728</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1498.81346</v>
+        <v>4432.508449999999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>8236.363450000001</v>
+        <v>7378.17833</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>16965.49535</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>17532.53013</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>6100.841</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>0.0019</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>1.13729</v>
@@ -1790,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>3827.1296</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>37.20918</v>
+        <v>36.90918</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>45.376</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>229.70607</v>
+        <v>239.36251</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>242.74994</v>
+        <v>39.92628</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>232.97639</v>
+        <v>145.52289</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>375.58613</v>
+        <v>311.52576</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>406.45285</v>
+        <v>386.29036</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>235.00895</v>
+        <v>541.4108200000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>418.40685</v>
+        <v>601.6736200000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>769.6928099999999</v>
+        <v>513.0239799999999</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>584.3223999999999</v>
+        <v>585.68416</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2001.33806</v>
+        <v>1994.14021</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1607.58142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1593.0716</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>356.544</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1901,13 +1927,13 @@
         <v>0.26808</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>0.48765</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>56.26198</v>
+        <v>54.44983999999999</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>86.10867999999999</v>
+        <v>72.93641000000001</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>59.50881</v>
@@ -1918,17 +1944,22 @@
       <c r="M29" s="48" t="n">
         <v>45.48163</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>29.31395</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>0</v>
+        <v>129.96803</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>214.64658</v>
@@ -1940,7 +1971,7 @@
         <v>23.58322</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>43.46149</v>
+        <v>59.07744</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>0</v>
@@ -1955,19 +1986,24 @@
         <v>12.30922</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>81.68808</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>88.07208</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>9.710090000000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>7.50712</v>
+        <v>7.510560000000001</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>43.45785</v>
@@ -1979,67 +2015,77 @@
         <v>10.98351</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>75.95759</v>
+        <v>60.8678</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>35.57995</v>
+        <v>24.83522</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>68.88741</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>46.74713</v>
+        <v>49.30952</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>43.28895</v>
+        <v>41.51388</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>181.75117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>160.94471</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>9.273</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>219.58127</v>
+        <v>157.51682</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>241.99832</v>
+        <v>405.90079</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>359.83753</v>
+        <v>347.2883</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>53.92564</v>
+        <v>78.62085</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>412.47117</v>
+        <v>427.1515</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>224.61504</v>
+        <v>661.87294</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>620.4889300000001</v>
+        <v>1675.42236</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>222.7716</v>
+        <v>1582.54227</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>189.95653</v>
+        <v>2343.24744</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3851.80161</v>
+        <v>3400.43594</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>7544.589019999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>7656.92128</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3698.346</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0.00049</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>172.73469</v>
+        <v>215.14025</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>296.33587</v>
+        <v>319.84301</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>78.66587</v>
+        <v>173.55638</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>200.99621</v>
+        <v>303.27886</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>383.49187</v>
+        <v>331.01893</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>209.63965</v>
+        <v>165.23058</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>446.17596</v>
+        <v>389.16093</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>198.61934</v>
+        <v>877.34721</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>618.2785900000001</v>
+        <v>1394.75852</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2114.02471</v>
+        <v>1716.17818</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3677.27443</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>4160.90923</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1991.302</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1030.63848</v>
+        <v>238.57427</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>534.71309</v>
+        <v>955.22216</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>828.1743</v>
+        <v>946.26075</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1293.3692</v>
+        <v>1338.81875</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>605.32501</v>
+        <v>608.1813000000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>259.91916</v>
+        <v>572.40631</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>946.0090700000001</v>
+        <v>1561.98936</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>403.11234</v>
+        <v>545.3176699999999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>560.9155999999999</v>
+        <v>1783.80881</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>5085.342880000001</v>
+        <v>4307.773</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>9646.57257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>9746.985379999998</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>4873.966</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>10.96792</v>
@@ -2210,16 +2276,16 @@
         <v>2.26734</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>0.40978</v>
+        <v>11.53303</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>0.44767</v>
+        <v>0</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>15.35109</v>
+        <v>11.36338</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>23.09559</v>
+        <v>25.48787</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>14.44594</v>
@@ -2230,17 +2296,22 @@
       <c r="M37" s="48" t="n">
         <v>345.74944</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>28.44842</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>213.487</v>
+        <v>536.42949</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>739.38606</v>
@@ -2252,10 +2323,10 @@
         <v>412.2185</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>75.64</v>
+        <v>91.25595</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>667.95979</v>
+        <v>705.42462</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>0</v>
@@ -2267,13 +2338,18 @@
         <v>273.05421</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>463.34156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>486.61656</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>178.008</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.06027</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>203.59811</v>
+        <v>118.08803</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>297.09865</v>
+        <v>401.88416</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>72.78833999999999</v>
+        <v>198.09111</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>151.83816</v>
+        <v>244.0325</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>129.58234</v>
+        <v>121.31546</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>152.12109</v>
+        <v>449.44003</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>234.63559</v>
+        <v>818.1689399999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>291.84465</v>
+        <v>451.19302</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>261.97006</v>
+        <v>1500.93165</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>4749.812899999999</v>
+        <v>3972.76441</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>8657.477389999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>8732.883129999998</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>4556.242</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2.36392</v>
@@ -2378,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>0</v>
+        <v>0.00014</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>21.07771</v>
@@ -2425,257 +2516,292 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>764.12213</v>
+        <v>57.568</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>17.07844</v>
+        <v>9.85951</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>14.43801</v>
+        <v>7.221690000000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>183.60894</v>
+        <v>136.86415</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>30.98888</v>
+        <v>30.9888</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>31.7104</v>
+        <v>31.71033</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>28.0626</v>
+        <v>27.03242</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>88.17209999999999</v>
+        <v>68.63678</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>231.08525</v>
+        <v>215.01673</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>37.43604999999999</v>
+        <v>36.91466</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>180.00418</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>181.73625</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>139.716</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2101.54378</v>
+        <v>2136.29025</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1463.9076</v>
+        <v>1404.56236</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1747.44827</v>
+        <v>1596.73321</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2185.81615</v>
+        <v>2419.70914</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1819.60878</v>
+        <v>1506.4596</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1343.44453</v>
+        <v>1385.17201</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2078.19925</v>
+        <v>2470.205309999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1949.65174</v>
+        <v>2162.63339</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2570.59451</v>
+        <v>3007.73722</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>8159.48475</v>
+        <v>7719.06851</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>8964.607679999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>8589.779699999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>6071.297</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2082.84978</v>
+        <v>2128.16636</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1458.09879</v>
+        <v>1398.75355</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1627.68619</v>
+        <v>1492.21789</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1882.28033</v>
+        <v>2408.74059</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1734.41047</v>
+        <v>1479.93811</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1258.58815</v>
+        <v>1304.33517</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1958.13091</v>
+        <v>2350.13697</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1910.83581</v>
+        <v>1967.41389</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2468.66299</v>
+        <v>2905.8057</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>7244.595439999999</v>
+        <v>6821.074479999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>8815.10888</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>8583.836939999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>6071.297</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>18.694</v>
+        <v>8.123890000000001</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>5.808809999999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>119.76208</v>
+        <v>104.51532</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>303.53582</v>
+        <v>10.96855</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>85.19830999999999</v>
+        <v>26.52149</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>84.85637999999999</v>
+        <v>80.83684</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>120.06834</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>38.81593</v>
+        <v>195.2195</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>101.93152</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>914.88931</v>
+        <v>897.9940300000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>149.4988</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5.94276</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>5369.2784</v>
+        <v>4738.7345</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>5571.374720000001</v>
+        <v>6667.97119</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>5365.79695</v>
+        <v>6847.13471</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>6568.01479</v>
+        <v>8925.50548</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>7672.988560000001</v>
+        <v>7072.25065</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3824.13091</v>
+        <v>8041.29597</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>6949.780539999999</v>
+        <v>13265.10041</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>5704.45433</v>
+        <v>11365.71754</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>9010.66202</v>
+        <v>13718.07389</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>17901.93524</v>
+        <v>18274.69661</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>23041.03017</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>27307.06733</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>21108.135</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>207.38791</v>
+        <v>513.19418</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>360.05524</v>
+        <v>234.87147</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>493.77829</v>
+        <v>491.2496899999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>555.96727</v>
+        <v>1000.03698</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3613.84574</v>
+        <v>3537.12213</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>810.3148</v>
+        <v>638.2829199999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1093.3876</v>
+        <v>655.72213</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1167.01673</v>
+        <v>1024.93772</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1097.92633</v>
+        <v>1598.64154</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1490.12016</v>
+        <v>1399.52737</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2733.41808</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2710.29212</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2474.692</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>135.77166</v>
+        <v>0</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>42.13501</v>
+        <v>0</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>64.62199</v>
@@ -2690,7 +2816,7 @@
         <v>0.9126000000000001</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>33.01745</v>
+        <v>18.24881</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>0</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1686.25</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>207.38791</v>
+        <v>513.19418</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>224.28358</v>
+        <v>234.87147</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>493.77829</v>
+        <v>491.24969</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>513.83226</v>
+        <v>1000.03698</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3549.22375</v>
+        <v>3472.50014</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>733.81361</v>
+        <v>561.7817299999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1093.3876</v>
+        <v>655.72213</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1166.10413</v>
+        <v>1024.02512</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1064.90888</v>
+        <v>1580.39273</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1490.12016</v>
+        <v>1399.52737</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2733.41808</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2710.29212</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>788.442</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>406.11384</v>
+        <v>649.07527</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>300.42368</v>
+        <v>300.3435899999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1485.18322</v>
+        <v>1262.23446</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>437.05202</v>
+        <v>547.1218200000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>526.74638</v>
+        <v>508.08716</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1119.35978</v>
+        <v>697.2558899999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>780.76529</v>
+        <v>583.01702</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2484.08858</v>
+        <v>2887.55974</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>539.5000699999999</v>
+        <v>830.03889</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2084.94146</v>
+        <v>2019.52199</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>4934.514639999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>5004.615070000001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1121.937</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2789,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>142.76917</v>
+        <v>0</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>132.91296</v>
@@ -2807,31 +2948,36 @@
         <v>0.95786</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>0</v>
+        <v>0.9156599999999999</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>52.42918</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>92.41002</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>64.744</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>13.21933</v>
+        <v>0.12166</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>44.82845</v>
+        <v>45.0511</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>360.38882</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>20.58413</v>
+        <v>23.80819</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>131.47916</v>
@@ -2854,164 +3000,187 @@
       <c r="M53" s="48" t="n">
         <v>217.73102</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>232.468</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>392.89451</v>
+        <v>648.95361</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>255.59523</v>
+        <v>255.29249</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>982.02523</v>
+        <v>901.8456399999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>283.55493</v>
+        <v>390.40067</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>395.26722</v>
+        <v>376.608</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1087.01884</v>
+        <v>664.91495</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>753.5545500000001</v>
+        <v>555.80628</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1609.22482</v>
+        <v>2012.69598</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>539.5000699999999</v>
+        <v>829.12323</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>1980.69293</v>
+        <v>1915.27346</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>4716.78362</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>4694.47403</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>824.725</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>5170.55247</v>
+        <v>4602.85341</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>5631.006280000001</v>
+        <v>6602.49907</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>4374.392019999999</v>
+        <v>6076.149939999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>6686.93004</v>
+        <v>9378.42064</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>10760.08792</v>
+        <v>10101.28562</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3515.08593</v>
+        <v>7982.323</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>7262.402849999999</v>
+        <v>13337.80552</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>4387.38248</v>
+        <v>9503.095519999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>9569.08828</v>
+        <v>14486.67654</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>17307.11394</v>
+        <v>17654.70199</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>20839.93361</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>25012.74438</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>22460.89</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1444.15557</v>
+        <v>1494.14579</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1043.92666</v>
+        <v>1193.86095</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1127.63796</v>
+        <v>1182.08198</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1466.71425</v>
+        <v>1745.2275</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1202.31915</v>
+        <v>1167.17861</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>891.63075</v>
+        <v>1115.45495</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1392.08583</v>
+        <v>1754.33162</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1063.74453</v>
+        <v>1960.5995</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1468.71629</v>
+        <v>2169.74901</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3341.46146</v>
+        <v>3444.06373</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>5196.04658</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>5967.31203</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4303.881</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>3726.3969</v>
+        <v>3108.70762</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>4587.07962</v>
+        <v>5408.638120000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>3246.75406</v>
+        <v>4894.06796</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>5220.21579</v>
+        <v>7633.193139999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>9557.768769999999</v>
+        <v>8934.10701</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>2623.45518</v>
+        <v>6866.86805</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>5870.31702</v>
+        <v>11583.4739</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3323.63795</v>
+        <v>7542.49602</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>8100.371990000001</v>
+        <v>12316.92753</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>13965.65248</v>
+        <v>14210.63826</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>15643.88703</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>19045.43235</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>18157.009</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>80</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>85</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>92</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>86</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>90</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>95</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>94</v>
+      </c>
+      <c r="L59" s="35" t="n">
+        <v>79</v>
+      </c>
+      <c r="M59" s="35" t="n">
+        <v>85</v>
+      </c>
+      <c r="N59" s="35" t="n">
         <v>99</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>107</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>118</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>115</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>123</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>129</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>132</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>93</v>
-      </c>
-      <c r="M59" s="35" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>